--- a/input_files/user_defined/case study data.xlsx
+++ b/input_files/user_defined/case study data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/input_files/user_defined/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E397BB-CDF7-A34A-B547-53BAF10DB111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D691F9-34E3-0348-9051-91FFC6C9A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="8" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="15" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="476">
   <si>
     <t>Al</t>
   </si>
@@ -1495,33 +1495,6 @@
     <t>World Platinum Investment Council - Supply &amp; Demand - Historical Data (1975-2012 from Johnson Matthey, 2013-2018 from SFA (Oxford), 2019-2021 from Metals Focus)</t>
   </si>
   <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Molybdenum</t>
-  </si>
-  <si>
-    <t>Nickel</t>
-  </si>
-  <si>
-    <t>Palladium</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Zinc</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -1538,6 +1511,9 @@
   </si>
   <si>
     <t>USGS Mineral Yearbooks, 2002-2019 using most recent year</t>
+  </si>
+  <si>
+    <t>Pd</t>
   </si>
 </sst>
 </file>
@@ -13636,42 +13612,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BF720A-D744-1B4D-893A-AC0F2A4F2378}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="16">
       <c r="A1" s="49" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>469</v>
+        <v>8</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>470</v>
+        <v>2</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>471</v>
+        <v>113</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>472</v>
+        <v>121</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>473</v>
+        <v>112</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>475</v>
+        <v>94</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>476</v>
+        <v>114</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>477</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16">
@@ -13694,10 +13670,10 @@
         <v>1.06</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I2" s="50">
         <v>3.7130000000000003E-2</v>
@@ -13729,7 +13705,7 @@
         <v>1.921E-3</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I3" s="50">
         <v>3.6905E-2</v>
@@ -13761,7 +13737,7 @@
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I4" s="50">
         <v>2.5239999999999999E-2</v>
@@ -13793,7 +13769,7 @@
         <v>1.725E-3</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I5" s="50">
         <v>1.7833999999999999E-2</v>
@@ -13825,7 +13801,7 @@
         <v>1.348E-3</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I6" s="50">
         <v>1.9188E-2</v>
@@ -13857,7 +13833,7 @@
         <v>1.4270000000000001E-3</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I7" s="50">
         <v>3.1510999999999997E-2</v>
@@ -13889,7 +13865,7 @@
         <v>1.5560000000000001E-3</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I8" s="50">
         <v>4.6684999999999997E-2</v>
@@ -18836,7 +18812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A510BC-6699-4D7F-A1BA-2D5B6A269B1B}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10:I17"/>
     </sheetView>
   </sheetViews>
@@ -18856,10 +18832,10 @@
         <v>187</v>
       </c>
       <c r="F1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -18876,10 +18852,10 @@
         <v>310</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16">

--- a/input_files/user_defined/case study data.xlsx
+++ b/input_files/user_defined/case study data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jryter_usgs_gov/Documents/Documents/generalizationOutside/generalization/input_files/user_defined/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jryter_usgs_gov/Documents/Documents/generalizationOutside/GLOMBO/input_files/user_defined/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{8F278397-5F82-6044-96A5-4E6CC34C7F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7E25D4A-F85F-47BB-ABDB-803503AB3385}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{8F278397-5F82-6044-96A5-4E6CC34C7F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D217F32-6369-4AFF-BECB-39CC473F329F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="8" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -972,9 +972,6 @@
     <t>Smelter production of tin which claims to include both primary and secondary sources, from British Geological Survey, found here: https://www2.bgs.ac.uk/mineralsuk/statistics/worldArchive.html</t>
   </si>
   <si>
-    <t>IGSG Factbook 2018</t>
-  </si>
-  <si>
     <t>The Silver Institute, World Silver Surveys, taking the maximum value reported in the surveys from 2001-2022, https://www.silverinstitute.org/all-world-silver-surveys/. Using total demand after hedging adjustments (appears equal to total supply)</t>
   </si>
   <si>
@@ -1880,6 +1877,9 @@
   </si>
   <si>
     <t>primary_production_std</t>
+  </si>
+  <si>
+    <t>ICSG Factbook 2018</t>
   </si>
 </sst>
 </file>
@@ -5848,46 +5848,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:BG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="18" width="8.85546875" customWidth="1"/>
-    <col min="19" max="21" width="12.28515625" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" customWidth="1"/>
-    <col min="24" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" customWidth="1"/>
-    <col min="29" max="29" width="9.85546875" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.15625" customWidth="1"/>
+    <col min="3" max="18" width="8.83984375" customWidth="1"/>
+    <col min="19" max="21" width="12.26171875" customWidth="1"/>
+    <col min="22" max="22" width="8.83984375" customWidth="1"/>
+    <col min="24" max="26" width="8.83984375" customWidth="1"/>
+    <col min="27" max="27" width="9.68359375" customWidth="1"/>
+    <col min="28" max="28" width="8.83984375" customWidth="1"/>
+    <col min="29" max="29" width="9.83984375" customWidth="1"/>
+    <col min="30" max="30" width="12.15625" customWidth="1"/>
+    <col min="31" max="31" width="10.26171875" customWidth="1"/>
+    <col min="32" max="32" width="10.15625" customWidth="1"/>
+    <col min="33" max="33" width="11.41796875" customWidth="1"/>
+    <col min="34" max="34" width="9.83984375" customWidth="1"/>
     <col min="35" max="35" width="10" customWidth="1"/>
-    <col min="36" max="36" width="9.85546875" customWidth="1"/>
-    <col min="37" max="37" width="10.140625" customWidth="1"/>
-    <col min="38" max="38" width="9.85546875" customWidth="1"/>
-    <col min="39" max="39" width="10.140625" customWidth="1"/>
+    <col min="36" max="36" width="9.83984375" customWidth="1"/>
+    <col min="37" max="37" width="10.15625" customWidth="1"/>
+    <col min="38" max="38" width="9.83984375" customWidth="1"/>
+    <col min="39" max="39" width="10.15625" customWidth="1"/>
     <col min="40" max="40" width="10" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" customWidth="1"/>
-    <col min="42" max="42" width="10.85546875" customWidth="1"/>
-    <col min="43" max="43" width="9.85546875" customWidth="1"/>
-    <col min="44" max="44" width="9.42578125" customWidth="1"/>
+    <col min="41" max="41" width="10.15625" customWidth="1"/>
+    <col min="42" max="42" width="10.83984375" customWidth="1"/>
+    <col min="43" max="43" width="9.83984375" customWidth="1"/>
+    <col min="44" max="44" width="9.41796875" customWidth="1"/>
     <col min="45" max="45" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="28" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="1" spans="1:59" s="28" customFormat="1" ht="34" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>92</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>3</v>
@@ -6004,12 +6004,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="14.45" customHeight="1">
+    <row r="2" spans="1:59" ht="14.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -6018,29 +6018,29 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>10</v>
@@ -6050,19 +6050,19 @@
       </c>
       <c r="P2" s="14"/>
       <c r="Q2" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="6" t="s">
@@ -6071,45 +6071,45 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM2" s="14"/>
       <c r="AN2" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" ht="14.45" customHeight="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" ht="14.5" customHeight="1">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C3">
         <v>85768.388145129153</v>
@@ -6188,7 +6188,7 @@
         <v>194</v>
       </c>
       <c r="AE3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7" t="s">
@@ -6212,12 +6212,12 @@
       <c r="AM3" s="16"/>
       <c r="AN3" s="7"/>
     </row>
-    <row r="4" spans="1:59" ht="14.45" customHeight="1">
+    <row r="4" spans="1:59" ht="14.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -6252,14 +6252,14 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
@@ -6270,12 +6270,12 @@
       <c r="AM4" s="14"/>
       <c r="AN4" s="6"/>
     </row>
-    <row r="5" spans="1:59" ht="14.45" customHeight="1">
+    <row r="5" spans="1:59" ht="14.5" customHeight="1">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C5">
         <v>0.04</v>
@@ -6343,7 +6343,7 @@
         <v>288</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7" t="s">
@@ -6353,7 +6353,7 @@
         <v>203</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7" t="s">
@@ -6363,7 +6363,7 @@
         <v>205</v>
       </c>
       <c r="AI5" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AJ5" s="7" t="s">
         <v>206</v>
@@ -6375,16 +6375,16 @@
         <v>208</v>
       </c>
       <c r="AM5" s="46" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN5" s="7"/>
     </row>
-    <row r="6" spans="1:59" ht="14.45" customHeight="1">
+    <row r="6" spans="1:59" ht="14.5" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="5">
         <v>0.45100000000000001</v>
@@ -6455,17 +6455,17 @@
         <v>146</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6" t="s">
         <v>209</v>
       </c>
       <c r="AD6" s="55" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AE6" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF6" s="6" t="s">
         <v>76</v>
@@ -6474,31 +6474,31 @@
         <v>210</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI6" s="6" t="s">
         <v>211</v>
       </c>
       <c r="AJ6" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AK6" s="6" t="s">
         <v>212</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM6" s="14"/>
       <c r="AN6" s="35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" ht="14.45" customHeight="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" ht="14.5" customHeight="1">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C7">
         <v>0.251</v>
@@ -6558,7 +6558,7 @@
         <v>23</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="X7" s="7" t="s">
         <v>157</v>
@@ -6575,25 +6575,25 @@
         <v>213</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF7" s="7" t="s">
         <v>76</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH7" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI7" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ7" s="17" t="s">
         <v>318</v>
-      </c>
-      <c r="AI7" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ7" s="17" t="s">
-        <v>319</v>
       </c>
       <c r="AK7" s="7" t="s">
         <v>212</v>
@@ -6606,12 +6606,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="14.45" customHeight="1">
+    <row r="8" spans="1:59" ht="14.5" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" s="5">
         <v>0.11899999999999999</v>
@@ -6681,17 +6681,17 @@
         <v>139</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6" t="s">
         <v>216</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AE8" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF8" s="6" t="s">
         <v>76</v>
@@ -6707,12 +6707,12 @@
       <c r="AM8" s="14"/>
       <c r="AN8" s="6"/>
     </row>
-    <row r="9" spans="1:59" ht="14.45" customHeight="1">
+    <row r="9" spans="1:59" ht="14.5" customHeight="1">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C9">
         <v>0.11899999999999999</v>
@@ -6782,24 +6782,24 @@
         <v>140</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7" t="s">
         <v>218</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF9" s="7" t="s">
         <v>76</v>
       </c>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
@@ -6810,12 +6810,12 @@
       <c r="AM9" s="16"/>
       <c r="AN9" s="7"/>
     </row>
-    <row r="10" spans="1:59" ht="14.45" customHeight="1">
+    <row r="10" spans="1:59" ht="14.5" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" s="5">
         <f>1-C11-C7-C9-C8</f>
@@ -6895,10 +6895,10 @@
         <v>221</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF10" s="6" t="s">
         <v>76</v>
@@ -6918,15 +6918,15 @@
       <c r="AM10" s="14"/>
       <c r="AN10" s="6"/>
       <c r="AR10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" ht="14.45" customHeight="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" ht="14.5" customHeight="1">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C11">
         <v>0.27300000000000002</v>
@@ -6996,15 +6996,15 @@
         <v>142</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AE11" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF11" s="7" t="s">
         <v>76</v>
@@ -7022,48 +7022,48 @@
       <c r="AM11" s="16"/>
       <c r="AN11" s="7"/>
       <c r="AR11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AV11" t="s">
+        <v>520</v>
+      </c>
+      <c r="AW11" t="s">
         <v>521</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>522</v>
       </c>
-      <c r="AX11" t="s">
-        <v>523</v>
-      </c>
       <c r="AY11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BA11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BB11" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BC11" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="BD11" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="BD11" s="28" t="s">
+      <c r="BE11" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="BE11" s="28" t="s">
+      <c r="BF11" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="BF11" s="28" t="s">
+      <c r="BG11" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="BG11" s="28" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" ht="14.45" customHeight="1">
+    </row>
+    <row r="12" spans="1:59" ht="14.5" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C12" s="5">
         <v>0.9</v>
@@ -7122,7 +7122,7 @@
         <v>23</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X12" s="6" t="s">
         <v>107</v>
@@ -7134,15 +7134,15 @@
         <v>167</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE12" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF12" s="6" t="s">
         <v>103</v>
@@ -7166,19 +7166,19 @@
         <v>200</v>
       </c>
       <c r="AM12" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AN12" s="6" t="s">
         <v>230</v>
       </c>
       <c r="AR12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AS12">
         <v>603.82436935024202</v>
       </c>
       <c r="AT12" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AU12">
         <f t="shared" ref="AU12:AU16" si="0">AS12-AS11</f>
@@ -7200,18 +7200,18 @@
         <v>10.8</v>
       </c>
       <c r="BA12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="BD12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="14.45" customHeight="1">
+    <row r="13" spans="1:59" ht="14.5" customHeight="1">
       <c r="A13" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C13">
         <v>0.95</v>
@@ -7279,13 +7279,13 @@
         <v>167</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF13" s="7" t="s">
         <v>103</v>
@@ -7303,19 +7303,19 @@
       </c>
       <c r="AL13" s="7"/>
       <c r="AM13" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AN13" s="7" t="s">
         <v>233</v>
       </c>
       <c r="AR13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AS13">
         <v>771.97496543219995</v>
       </c>
       <c r="AT13" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AU13">
         <f t="shared" si="0"/>
@@ -7335,7 +7335,7 @@
         <v>20</v>
       </c>
       <c r="BA13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BB13">
         <v>0.64</v>
@@ -7344,12 +7344,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="14.45" customHeight="1">
+    <row r="14" spans="1:59" ht="14.5" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C14" s="5">
         <v>0.9</v>
@@ -7418,13 +7418,13 @@
         <v>167</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF14" s="6" t="s">
         <v>103</v>
@@ -7436,19 +7436,19 @@
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AN14" s="6" t="s">
         <v>234</v>
       </c>
       <c r="AR14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AS14">
         <v>914.64984739641102</v>
       </c>
       <c r="AT14" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AU14">
         <f t="shared" si="0"/>
@@ -7469,7 +7469,7 @@
         <v>1.3</v>
       </c>
       <c r="BA14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BB14">
         <v>0.3</v>
@@ -7481,12 +7481,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="14.45" customHeight="1">
+    <row r="15" spans="1:59" ht="14.5" customHeight="1">
       <c r="A15" t="s">
         <v>96</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15">
         <v>0.95</v>
@@ -7553,13 +7553,13 @@
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF15" s="7" t="s">
         <v>103</v>
@@ -7571,17 +7571,17 @@
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AN15" s="7"/>
       <c r="AR15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AS15">
         <v>1121.02081647049</v>
       </c>
       <c r="AT15" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AU15">
         <f t="shared" si="0"/>
@@ -7601,7 +7601,7 @@
         <v>7</v>
       </c>
       <c r="BA15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BC15">
         <v>0.08</v>
@@ -7610,12 +7610,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="14.45" customHeight="1">
+    <row r="16" spans="1:59" ht="14.5" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C16" s="5">
         <v>0.9</v>
@@ -7682,13 +7682,13 @@
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF16" s="6" t="s">
         <v>103</v>
@@ -7700,19 +7700,19 @@
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
       <c r="AM16" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AN16" s="6" t="s">
         <v>235</v>
       </c>
       <c r="AR16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AS16">
         <v>1518.4722733707899</v>
       </c>
       <c r="AT16" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AU16">
         <f t="shared" si="0"/>
@@ -7733,7 +7733,7 @@
         <v>11</v>
       </c>
       <c r="BA16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BB16">
         <v>0.06</v>
@@ -7745,12 +7745,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:56" ht="14.45" customHeight="1">
+    <row r="17" spans="1:56" ht="14.5" customHeight="1">
       <c r="A17" t="s">
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -7809,7 +7809,7 @@
         <v>23</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X17" s="7" t="s">
         <v>106</v>
@@ -7821,7 +7821,7 @@
         <v>147</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -7829,19 +7829,19 @@
         <v>236</v>
       </c>
       <c r="AE17" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF17" s="7" t="s">
         <v>103</v>
       </c>
       <c r="AG17" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH17" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI17" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ17" s="7" t="s">
         <v>237</v>
@@ -7850,20 +7850,20 @@
         <v>238</v>
       </c>
       <c r="AL17" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM17" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AN17" s="7"/>
       <c r="AR17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AS17">
         <v>1814.01310029665</v>
       </c>
       <c r="AT17" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AU17">
         <f>AS17-AS16</f>
@@ -7883,12 +7883,12 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="18" spans="1:56" ht="14.45" customHeight="1">
+    <row r="18" spans="1:56" ht="14.5" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C18" s="5">
         <v>25</v>
@@ -7957,7 +7957,7 @@
         <v>148</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="19" t="s">
@@ -7967,33 +7967,33 @@
         <v>240</v>
       </c>
       <c r="AE18" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF18" s="6" t="s">
         <v>103</v>
       </c>
       <c r="AG18" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH18" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6" t="s">
         <v>242</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM18" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AN18" s="6"/>
       <c r="AU18" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AV18">
         <f>SUM(AV12:AV17)</f>
@@ -8012,12 +8012,12 @@
         <v>9.9143138132958484</v>
       </c>
     </row>
-    <row r="19" spans="1:56" ht="14.45" customHeight="1">
+    <row r="19" spans="1:56" ht="14.5" customHeight="1">
       <c r="A19" t="s">
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -8086,25 +8086,25 @@
         <v>150</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF19" s="7" t="s">
         <v>103</v>
       </c>
       <c r="AG19" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH19" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI19" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ19" s="7" t="s">
         <v>243</v>
@@ -8113,14 +8113,14 @@
         <v>244</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM19" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AN19" s="7"/>
       <c r="AT19" s="69" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AU19" s="69"/>
       <c r="AV19" s="69"/>
@@ -8133,12 +8133,12 @@
       <c r="BC19" s="69"/>
       <c r="BD19" s="69"/>
     </row>
-    <row r="20" spans="1:56" ht="14.45" customHeight="1">
+    <row r="20" spans="1:56" ht="14.5" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C20" s="5">
         <v>15</v>
@@ -8203,7 +8203,7 @@
         <v>151</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6" t="s">
@@ -8211,26 +8211,26 @@
       </c>
       <c r="AD20" s="6"/>
       <c r="AE20" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF20" s="6" t="s">
         <v>103</v>
       </c>
       <c r="AG20" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH20" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ20" s="6" t="s">
         <v>241</v>
       </c>
       <c r="AK20" s="6"/>
       <c r="AL20" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AM20" s="14"/>
       <c r="AN20" s="6"/>
@@ -8246,12 +8246,12 @@
       <c r="BC20" s="69"/>
       <c r="BD20" s="69"/>
     </row>
-    <row r="21" spans="1:56" ht="14.45" customHeight="1">
+    <row r="21" spans="1:56" ht="14.5" customHeight="1">
       <c r="A21" t="s">
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -8320,7 +8320,7 @@
         <v>149</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
@@ -8328,19 +8328,19 @@
         <v>247</v>
       </c>
       <c r="AE21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF21" s="7" t="s">
         <v>103</v>
       </c>
       <c r="AG21" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH21" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI21" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ21" s="7" t="s">
         <v>248</v>
@@ -8349,10 +8349,10 @@
         <v>249</v>
       </c>
       <c r="AL21" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM21" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN21" s="7"/>
       <c r="AT21" s="69"/>
@@ -8367,12 +8367,12 @@
       <c r="BC21" s="69"/>
       <c r="BD21" s="69"/>
     </row>
-    <row r="22" spans="1:56" ht="14.45" customHeight="1">
+    <row r="22" spans="1:56" ht="14.5" customHeight="1">
       <c r="A22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -8445,7 +8445,7 @@
         <v>23</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X22" s="7" t="s">
         <v>106</v>
@@ -8457,7 +8457,7 @@
         <v>147</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
@@ -8465,19 +8465,19 @@
         <v>236</v>
       </c>
       <c r="AE22" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF22" s="7" t="s">
         <v>103</v>
       </c>
       <c r="AG22" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH22" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI22" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ22" s="7" t="s">
         <v>237</v>
@@ -8500,12 +8500,12 @@
       <c r="BC22" s="69"/>
       <c r="BD22" s="69"/>
     </row>
-    <row r="23" spans="1:56" ht="14.45" customHeight="1">
+    <row r="23" spans="1:56" ht="14.5" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C23" s="5">
         <v>7.5</v>
@@ -8578,7 +8578,7 @@
         <v>23</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X23" s="6" t="s">
         <v>106</v>
@@ -8590,7 +8590,7 @@
         <v>148</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="19" t="s">
@@ -8600,19 +8600,19 @@
         <v>240</v>
       </c>
       <c r="AE23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>103</v>
       </c>
       <c r="AG23" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH23" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6" t="s">
@@ -8633,12 +8633,12 @@
       <c r="BC23" s="69"/>
       <c r="BD23" s="69"/>
     </row>
-    <row r="24" spans="1:56" ht="14.45" customHeight="1">
+    <row r="24" spans="1:56" ht="14.5" customHeight="1">
       <c r="A24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -8711,7 +8711,7 @@
         <v>23</v>
       </c>
       <c r="W24" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X24" s="7" t="s">
         <v>106</v>
@@ -8723,25 +8723,25 @@
         <v>150</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF24" s="7" t="s">
         <v>103</v>
       </c>
       <c r="AG24" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH24" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI24" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ24" s="7" t="s">
         <v>243</v>
@@ -8766,12 +8766,12 @@
       <c r="BC24" s="69"/>
       <c r="BD24" s="69"/>
     </row>
-    <row r="25" spans="1:56" ht="14.45" customHeight="1">
+    <row r="25" spans="1:56" ht="14.5" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
@@ -8836,7 +8836,7 @@
         <v>23</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X25" s="6" t="s">
         <v>106</v>
@@ -8848,7 +8848,7 @@
         <v>151</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6" t="s">
@@ -8856,19 +8856,19 @@
       </c>
       <c r="AD25" s="6"/>
       <c r="AE25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF25" s="6" t="s">
         <v>103</v>
       </c>
       <c r="AG25" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH25" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ25" s="6" t="s">
         <v>241</v>
@@ -8889,12 +8889,12 @@
       <c r="BC25" s="69"/>
       <c r="BD25" s="69"/>
     </row>
-    <row r="26" spans="1:56" ht="14.45" customHeight="1">
+    <row r="26" spans="1:56" ht="14.5" customHeight="1">
       <c r="A26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C26">
         <v>4.5</v>
@@ -8966,7 +8966,7 @@
         <v>23</v>
       </c>
       <c r="W26" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X26" s="7" t="s">
         <v>106</v>
@@ -8978,7 +8978,7 @@
         <v>149</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
@@ -8986,19 +8986,19 @@
         <v>247</v>
       </c>
       <c r="AE26" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF26" s="7" t="s">
         <v>103</v>
       </c>
       <c r="AG26" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH26" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI26" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ26" s="7" t="s">
         <v>248</v>
@@ -9012,24 +9012,24 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="7"/>
       <c r="AT26" t="s">
+        <v>523</v>
+      </c>
+      <c r="AU26" t="s">
         <v>524</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AV26" t="s">
         <v>525</v>
       </c>
-      <c r="AV26" t="s">
-        <v>526</v>
-      </c>
       <c r="AW26" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="27" spans="1:56" ht="14.45" customHeight="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" ht="14.5" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C27" s="5">
         <v>0.64749999999999996</v>
@@ -9089,41 +9089,41 @@
       </c>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AC27" s="7"/>
       <c r="AD27" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF27" s="6" t="s">
         <v>172</v>
       </c>
       <c r="AG27" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI27" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ27" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK27" s="6"/>
       <c r="AL27" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AM27" s="6"/>
       <c r="AN27" s="5"/>
       <c r="AS27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AT27">
         <f>BD12*AV14</f>
@@ -9142,12 +9142,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="28" spans="1:56" ht="14.45" customHeight="1">
+    <row r="28" spans="1:56" ht="14.5" customHeight="1">
       <c r="A28" t="s">
         <v>132</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C28">
         <v>0.72899999999999998</v>
@@ -9205,40 +9205,40 @@
       </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AC28" s="6"/>
       <c r="AD28" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE28" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF28" s="7" t="s">
         <v>172</v>
       </c>
       <c r="AG28" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI28" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ28" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AM28" s="47"/>
       <c r="AS28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AT28">
         <f>BB13*AV12+AV17*BG13</f>
@@ -9257,12 +9257,12 @@
         <v>9.1965987951549089</v>
       </c>
     </row>
-    <row r="29" spans="1:56" ht="14.45" customHeight="1">
+    <row r="29" spans="1:56" ht="14.5" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C29" s="5">
         <v>0.76690000000000003</v>
@@ -9322,41 +9322,41 @@
       </c>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AC29" s="7"/>
       <c r="AD29" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE29" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF29" s="6" t="s">
         <v>172</v>
       </c>
       <c r="AG29" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI29" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ29" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK29" s="6"/>
       <c r="AL29" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AM29" s="47"/>
       <c r="AN29" s="5"/>
       <c r="AS29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AT29">
         <f>BD14*AV14+BB14*AV12+BC14*AV13</f>
@@ -9375,12 +9375,12 @@
         <v>11.744535340314076</v>
       </c>
     </row>
-    <row r="30" spans="1:56" ht="14.45" customHeight="1">
+    <row r="30" spans="1:56" ht="14.5" customHeight="1">
       <c r="A30" t="s">
         <v>134</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C30">
         <v>0.46850000000000003</v>
@@ -9438,40 +9438,40 @@
       </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AC30" s="6"/>
       <c r="AD30" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE30" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF30" s="7" t="s">
         <v>172</v>
       </c>
       <c r="AG30" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI30" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ30" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AM30" s="47"/>
       <c r="AS30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AT30">
         <f>AV15*BE15+AV13*BC15</f>
@@ -9490,12 +9490,12 @@
         <v>7.7955337093551886</v>
       </c>
     </row>
-    <row r="31" spans="1:56" ht="14.45" customHeight="1">
+    <row r="31" spans="1:56" ht="14.5" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C31" s="5">
         <v>0.75</v>
@@ -9555,41 +9555,41 @@
       </c>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AC31" s="7"/>
       <c r="AD31" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF31" s="6" t="s">
         <v>172</v>
       </c>
       <c r="AG31" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH31" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI31" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK31" s="6"/>
       <c r="AL31" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM31" s="47"/>
       <c r="AN31" s="5"/>
       <c r="AS31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AT31">
         <f>BB16*AV12+AV16+BC16*AV13</f>
@@ -9608,12 +9608,12 @@
         <v>11.809020616878026</v>
       </c>
     </row>
-    <row r="32" spans="1:56" ht="14.45" customHeight="1">
+    <row r="32" spans="1:56" ht="14.5" customHeight="1">
       <c r="A32" t="s">
         <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C32">
         <v>0.34250000000000003</v>
@@ -9682,14 +9682,14 @@
         <v>136</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AB32" s="7"/>
       <c r="AC32" s="17" t="s">
         <v>251</v>
       </c>
       <c r="AD32" s="55" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE32" s="17" t="s">
         <v>252</v>
@@ -9701,7 +9701,7 @@
         <v>292</v>
       </c>
       <c r="AH32" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7"/>
@@ -9709,14 +9709,14 @@
         <v>253</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AM32" s="47" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN32" s="7"/>
       <c r="AS32" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AT32">
         <f>SUM(AT27:AT31)</f>
@@ -9735,12 +9735,12 @@
         <v>9.9143138132958484</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="14.45" customHeight="1">
+    <row r="33" spans="1:40" ht="14.5" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C33" s="5">
         <v>0.24399999999999999</v>
@@ -9808,14 +9808,14 @@
         <v>137</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6" t="s">
         <v>254</v>
       </c>
       <c r="AD33" s="55" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE33" s="19" t="s">
         <v>252</v>
@@ -9827,7 +9827,7 @@
         <v>292</v>
       </c>
       <c r="AH33" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AI33" s="6" t="s">
         <v>255</v>
@@ -9837,17 +9837,17 @@
         <v>256</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AM33" s="48"/>
       <c r="AN33" s="6"/>
     </row>
-    <row r="34" spans="1:40" ht="14.45" customHeight="1">
+    <row r="34" spans="1:40" ht="14.5" customHeight="1">
       <c r="A34" t="s">
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -9914,7 +9914,7 @@
         <v>137</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
@@ -9932,12 +9932,12 @@
       <c r="AM34" s="48"/>
       <c r="AN34" s="7"/>
     </row>
-    <row r="35" spans="1:40" ht="14.45" customHeight="1">
+    <row r="35" spans="1:40" ht="14.5" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C35" s="5">
         <v>0.57769999999999999</v>
@@ -10005,7 +10005,7 @@
         <v>144</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AB35" s="6"/>
       <c r="AC35" s="19" t="s">
@@ -10013,13 +10013,13 @@
       </c>
       <c r="AD35" s="6"/>
       <c r="AE35" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF35" s="6" t="s">
         <v>75</v>
       </c>
       <c r="AG35" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
@@ -10028,17 +10028,17 @@
         <v>258</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AM35" s="48"/>
       <c r="AN35" s="6"/>
     </row>
-    <row r="36" spans="1:40" ht="14.45" customHeight="1">
+    <row r="36" spans="1:40" ht="14.5" customHeight="1">
       <c r="A36" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -10102,10 +10102,10 @@
         <v>127</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AA36" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
@@ -10116,25 +10116,25 @@
       </c>
       <c r="AG36" s="7"/>
       <c r="AH36" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
       <c r="AL36" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM36" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AN36" s="7"/>
     </row>
-    <row r="37" spans="1:40" ht="14.45" customHeight="1">
+    <row r="37" spans="1:40" ht="14.5" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C37" s="5">
         <v>0</v>
@@ -10199,10 +10199,10 @@
         <v>127</v>
       </c>
       <c r="Z37" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AA37" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="AG37" s="6"/>
       <c r="AH37" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
@@ -10221,17 +10221,17 @@
         <v>199</v>
       </c>
       <c r="AL37" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM37" s="48"/>
       <c r="AN37" s="6"/>
     </row>
-    <row r="38" spans="1:40" ht="14.45" customHeight="1">
+    <row r="38" spans="1:40" ht="14.5" customHeight="1">
       <c r="A38" t="s">
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -10291,7 +10291,7 @@
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
@@ -10303,7 +10303,7 @@
         <v>75</v>
       </c>
       <c r="AG38" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
@@ -10317,12 +10317,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="14.45" customHeight="1">
+    <row r="39" spans="1:40" ht="14.5" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C39" s="5">
         <v>0</v>
@@ -10383,7 +10383,7 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
@@ -10393,7 +10393,7 @@
         <v>75</v>
       </c>
       <c r="AG39" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6" t="s">
@@ -10405,12 +10405,12 @@
       <c r="AM39" s="48"/>
       <c r="AN39" s="6"/>
     </row>
-    <row r="40" spans="1:40" ht="14.45" customHeight="1">
+    <row r="40" spans="1:40" ht="14.5" customHeight="1">
       <c r="A40" t="s">
         <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C40">
         <v>88603.1</v>
@@ -10506,12 +10506,12 @@
       <c r="AM40" s="48"/>
       <c r="AN40" s="7"/>
     </row>
-    <row r="41" spans="1:40" ht="14.45" customHeight="1">
+    <row r="41" spans="1:40" ht="14.5" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>267</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C41" s="5">
         <v>0.5</v>
@@ -10592,12 +10592,12 @@
       <c r="AM41" s="48"/>
       <c r="AN41" s="5"/>
     </row>
-    <row r="42" spans="1:40" ht="14.45" customHeight="1">
+    <row r="42" spans="1:40" ht="14.5" customHeight="1">
       <c r="A42" t="s">
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C42">
         <v>67223.3764402956</v>
@@ -10668,19 +10668,19 @@
         <v>269</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AE42" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF42" s="7"/>
       <c r="AG42" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AK42" s="7"/>
       <c r="AL42" s="7" t="s">
@@ -10689,12 +10689,12 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="7"/>
     </row>
-    <row r="43" spans="1:40" ht="14.45" customHeight="1">
+    <row r="43" spans="1:40" ht="14.5" customHeight="1">
       <c r="A43" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C43" s="5">
         <f>2353/5.1</f>
@@ -10762,13 +10762,13 @@
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AE43" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF43" s="6" t="s">
         <v>108</v>
@@ -10792,16 +10792,16 @@
         <v>108</v>
       </c>
       <c r="AM43" s="48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN43" s="6"/>
     </row>
-    <row r="44" spans="1:40" ht="14.45" customHeight="1">
+    <row r="44" spans="1:40" ht="14.5" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C44">
         <f>0.995^0.5</f>
@@ -10877,10 +10877,10 @@
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AD44" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7" t="s">
@@ -10905,16 +10905,16 @@
         <v>108</v>
       </c>
       <c r="AM44" s="48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN44" s="7"/>
     </row>
-    <row r="45" spans="1:40" ht="14.45" customHeight="1">
+    <row r="45" spans="1:40" ht="14.5" customHeight="1">
       <c r="A45" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C45" s="5">
         <f>39.886/1.93</f>
@@ -10981,13 +10981,13 @@
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AE45" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF45" s="6" t="s">
         <v>108</v>
@@ -11011,16 +11011,16 @@
         <v>108</v>
       </c>
       <c r="AM45" s="48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN45" s="6"/>
     </row>
-    <row r="46" spans="1:40" ht="14.45" customHeight="1">
+    <row r="46" spans="1:40" ht="14.5" customHeight="1">
       <c r="A46" s="24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C46">
         <f>0.1332^0.5</f>
@@ -11093,10 +11093,10 @@
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
       <c r="AC46" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7" t="s">
@@ -11121,16 +11121,16 @@
         <v>108</v>
       </c>
       <c r="AM46" s="48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN46" s="7"/>
     </row>
-    <row r="47" spans="1:40" ht="14.45" customHeight="1">
+    <row r="47" spans="1:40" ht="14.5" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C47" s="5">
         <v>1807.7719999999999</v>
@@ -11199,18 +11199,18 @@
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD47" s="6"/>
       <c r="AE47" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF47" s="6" t="s">
         <v>271</v>
       </c>
       <c r="AG47" s="6"/>
       <c r="AH47" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="19" t="s">
@@ -11218,21 +11218,21 @@
       </c>
       <c r="AK47" s="6"/>
       <c r="AL47" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AM47" s="48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN47" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="14.45" customHeight="1">
+    <row r="48" spans="1:40" ht="14.5" customHeight="1">
       <c r="A48" t="s">
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C48">
         <v>706</v>
@@ -11301,7 +11301,7 @@
         <v>162</v>
       </c>
       <c r="AA48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>274</v>
@@ -11310,7 +11310,7 @@
         <v>275</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF48" t="s">
         <v>276</v>
@@ -11319,7 +11319,7 @@
         <v>277</v>
       </c>
       <c r="AH48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI48" t="s">
         <v>166</v>
@@ -11336,12 +11336,12 @@
       <c r="AM48" s="14"/>
       <c r="AN48" s="7"/>
     </row>
-    <row r="49" spans="1:40" ht="14.45" customHeight="1">
+    <row r="49" spans="1:40" ht="14.5" customHeight="1">
       <c r="A49" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
@@ -11413,10 +11413,10 @@
         <v>278</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AE49" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF49" s="6" t="s">
         <v>120</v>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="AN49" s="6"/>
     </row>
-    <row r="50" spans="1:40" ht="14.45" customHeight="1">
+    <row r="50" spans="1:40" ht="14.5" customHeight="1">
       <c r="A50" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -11543,16 +11543,16 @@
         <v>120</v>
       </c>
       <c r="AM50" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN50" s="7"/>
     </row>
-    <row r="51" spans="1:40" ht="14.45" customHeight="1">
+    <row r="51" spans="1:40" ht="14.5" customHeight="1">
       <c r="A51" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C51" s="5">
         <v>0</v>
@@ -11621,11 +11621,11 @@
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AD51" s="6"/>
       <c r="AE51" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF51" s="6" t="s">
         <v>120</v>
@@ -11653,12 +11653,12 @@
       </c>
       <c r="AN51" s="6"/>
     </row>
-    <row r="52" spans="1:40" ht="14.45" customHeight="1">
+    <row r="52" spans="1:40" ht="14.5" customHeight="1">
       <c r="A52" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -11725,7 +11725,7 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
       <c r="AC52" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AD52" s="6"/>
       <c r="AE52" s="7"/>
@@ -11755,12 +11755,12 @@
       </c>
       <c r="AN52" s="7"/>
     </row>
-    <row r="53" spans="1:40" ht="14.45" customHeight="1">
+    <row r="53" spans="1:40" ht="14.5" customHeight="1">
       <c r="A53" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C53" s="5">
         <v>0</v>
@@ -11829,7 +11829,7 @@
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AD53" s="6"/>
       <c r="AE53" s="6"/>
@@ -11859,7 +11859,7 @@
       </c>
       <c r="AN53" s="6"/>
     </row>
-    <row r="54" spans="1:40" ht="14.45" customHeight="1">
+    <row r="54" spans="1:40" ht="14.5" customHeight="1">
       <c r="A54" s="26" t="s">
         <v>41</v>
       </c>
@@ -11908,7 +11908,7 @@
       <c r="AM54" s="13"/>
       <c r="AN54" s="7"/>
     </row>
-    <row r="55" spans="1:40" ht="14.45" customHeight="1">
+    <row r="55" spans="1:40" ht="14.5" customHeight="1">
       <c r="A55" s="59" t="s">
         <v>42</v>
       </c>
@@ -11956,7 +11956,7 @@
       <c r="AM55" s="6"/>
       <c r="AN55" s="6"/>
     </row>
-    <row r="56" spans="1:40" ht="14.45" customHeight="1">
+    <row r="56" spans="1:40" ht="14.5" customHeight="1">
       <c r="A56" s="62" t="s">
         <v>43</v>
       </c>
@@ -12005,7 +12005,7 @@
       <c r="AM56" s="7"/>
       <c r="AN56" s="7"/>
     </row>
-    <row r="57" spans="1:40" ht="14.45" customHeight="1">
+    <row r="57" spans="1:40" ht="14.5" customHeight="1">
       <c r="A57" s="59" t="s">
         <v>44</v>
       </c>
@@ -12054,7 +12054,7 @@
       <c r="AM57" s="6"/>
       <c r="AN57" s="6"/>
     </row>
-    <row r="58" spans="1:40" ht="14.45" customHeight="1">
+    <row r="58" spans="1:40" ht="14.5" customHeight="1">
       <c r="A58" s="62" t="s">
         <v>45</v>
       </c>
@@ -12102,7 +12102,7 @@
       <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
     </row>
-    <row r="59" spans="1:40" ht="14.45" customHeight="1">
+    <row r="59" spans="1:40" ht="14.5" customHeight="1">
       <c r="A59" s="59" t="s">
         <v>46</v>
       </c>
@@ -12150,7 +12150,7 @@
       <c r="AM59" s="6"/>
       <c r="AN59" s="6"/>
     </row>
-    <row r="60" spans="1:40" ht="14.45" customHeight="1">
+    <row r="60" spans="1:40" ht="14.5" customHeight="1">
       <c r="A60" s="62" t="s">
         <v>47</v>
       </c>
@@ -12198,7 +12198,7 @@
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
     </row>
-    <row r="61" spans="1:40" ht="14.45" customHeight="1">
+    <row r="61" spans="1:40" ht="14.5" customHeight="1">
       <c r="A61" s="59" t="s">
         <v>48</v>
       </c>
@@ -12244,7 +12244,7 @@
       <c r="AM61" s="6"/>
       <c r="AN61" s="6"/>
     </row>
-    <row r="62" spans="1:40" ht="14.45" customHeight="1">
+    <row r="62" spans="1:40" ht="14.5" customHeight="1">
       <c r="A62" s="62" t="s">
         <v>49</v>
       </c>
@@ -12292,7 +12292,7 @@
       <c r="AM62" s="7"/>
       <c r="AN62" s="7"/>
     </row>
-    <row r="63" spans="1:40" ht="14.45" customHeight="1">
+    <row r="63" spans="1:40" ht="14.5" customHeight="1">
       <c r="A63" s="59" t="s">
         <v>50</v>
       </c>
@@ -12340,7 +12340,7 @@
       <c r="AM63" s="6"/>
       <c r="AN63" s="6"/>
     </row>
-    <row r="64" spans="1:40" ht="14.45" customHeight="1">
+    <row r="64" spans="1:40" ht="14.5" customHeight="1">
       <c r="A64" s="62" t="s">
         <v>51</v>
       </c>
@@ -12386,7 +12386,7 @@
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
     </row>
-    <row r="65" spans="1:40" ht="14.45" customHeight="1">
+    <row r="65" spans="1:40" ht="14.5" customHeight="1">
       <c r="A65" s="59" t="s">
         <v>52</v>
       </c>
@@ -12434,7 +12434,7 @@
       <c r="AM65" s="6"/>
       <c r="AN65" s="6"/>
     </row>
-    <row r="66" spans="1:40" ht="14.45" customHeight="1">
+    <row r="66" spans="1:40" ht="14.5" customHeight="1">
       <c r="A66" s="62" t="s">
         <v>53</v>
       </c>
@@ -12482,7 +12482,7 @@
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
     </row>
-    <row r="67" spans="1:40" ht="14.45" customHeight="1">
+    <row r="67" spans="1:40" ht="14.5" customHeight="1">
       <c r="A67" s="59" t="s">
         <v>54</v>
       </c>
@@ -12528,7 +12528,7 @@
       <c r="AM67" s="6"/>
       <c r="AN67" s="6"/>
     </row>
-    <row r="68" spans="1:40" ht="14.45" customHeight="1">
+    <row r="68" spans="1:40" ht="14.5" customHeight="1">
       <c r="A68" s="62" t="s">
         <v>55</v>
       </c>
@@ -13098,7 +13098,7 @@
     </row>
     <row r="80" spans="1:40">
       <c r="A80" s="65" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B80" s="65"/>
       <c r="C80" s="65"/>
@@ -13144,7 +13144,7 @@
     </row>
     <row r="81" spans="1:40">
       <c r="A81" s="65" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B81" s="65"/>
       <c r="C81" s="65"/>
@@ -13190,7 +13190,7 @@
     </row>
     <row r="82" spans="1:40">
       <c r="A82" s="65" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B82" s="65"/>
       <c r="C82" s="65"/>
@@ -13234,7 +13234,7 @@
     </row>
     <row r="83" spans="1:40">
       <c r="A83" s="65" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B83" s="65"/>
       <c r="C83" s="65"/>
@@ -13280,7 +13280,7 @@
     </row>
     <row r="84" spans="1:40">
       <c r="A84" s="65" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
@@ -13326,7 +13326,7 @@
     </row>
     <row r="85" spans="1:40">
       <c r="A85" s="65" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B85" s="65"/>
       <c r="C85" s="65"/>
@@ -13370,7 +13370,7 @@
     </row>
     <row r="86" spans="1:40">
       <c r="A86" s="65" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B86" s="65"/>
       <c r="C86" s="65"/>
@@ -13416,7 +13416,7 @@
     </row>
     <row r="87" spans="1:40">
       <c r="A87" s="65" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B87" s="65"/>
       <c r="C87" s="65"/>
@@ -13462,7 +13462,7 @@
     </row>
     <row r="88" spans="1:40">
       <c r="A88" s="65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B88" s="65"/>
       <c r="C88" s="65"/>
@@ -13506,7 +13506,7 @@
     </row>
     <row r="89" spans="1:40">
       <c r="A89" s="65" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B89" s="65"/>
       <c r="C89" s="65"/>
@@ -13552,7 +13552,7 @@
     </row>
     <row r="90" spans="1:40">
       <c r="A90" s="65" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
@@ -13598,7 +13598,7 @@
     </row>
     <row r="91" spans="1:40">
       <c r="A91" s="65" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
@@ -13642,7 +13642,7 @@
     </row>
     <row r="92" spans="1:40">
       <c r="A92" s="56" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -13688,7 +13688,7 @@
     </row>
     <row r="93" spans="1:40">
       <c r="A93" s="56" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -13734,7 +13734,7 @@
     </row>
     <row r="94" spans="1:40">
       <c r="A94" s="56" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -13778,7 +13778,7 @@
     </row>
     <row r="95" spans="1:40">
       <c r="A95" s="56" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -13825,7 +13825,7 @@
     </row>
     <row r="96" spans="1:40">
       <c r="A96" s="56" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -13872,7 +13872,7 @@
     </row>
     <row r="97" spans="1:40">
       <c r="A97" s="56" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -13916,7 +13916,7 @@
     </row>
     <row r="98" spans="1:40">
       <c r="A98" s="56" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -13963,7 +13963,7 @@
     </row>
     <row r="99" spans="1:40">
       <c r="A99" s="56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -14010,7 +14010,7 @@
     </row>
     <row r="100" spans="1:40">
       <c r="A100" s="56" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -14057,7 +14057,7 @@
     </row>
     <row r="101" spans="1:40">
       <c r="A101" s="56" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -14193,7 +14193,7 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
@@ -14209,10 +14209,10 @@
         <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -14223,16 +14223,16 @@
         <v>292</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>292</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -14773,11 +14773,11 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" customWidth="1"/>
+    <col min="26" max="26" width="9.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14794,7 +14794,7 @@
         <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -14802,16 +14802,16 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" t="s">
         <v>295</v>
       </c>
-      <c r="D2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" t="s">
-        <v>296</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -15331,7 +15331,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
@@ -15350,13 +15350,13 @@
         <v>173</v>
       </c>
       <c r="G1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I1" t="s">
         <v>400</v>
-      </c>
-      <c r="H1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -15364,25 +15364,25 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" t="s">
         <v>402</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>403</v>
       </c>
-      <c r="F2" t="s">
-        <v>404</v>
-      </c>
       <c r="G2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -15966,9 +15966,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15990,22 +15990,22 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
         <v>179</v>
       </c>
       <c r="J2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -16609,7 +16609,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -16824,7 +16824,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
@@ -16834,7 +16834,7 @@
         <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E1" t="s">
         <v>178</v>
@@ -16848,16 +16848,16 @@
         <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -17594,9 +17594,9 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -17964,11 +17964,11 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.3">
       <c r="A1" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>8</v>
@@ -17986,7 +17986,7 @@
         <v>109</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1" s="49" t="s">
         <v>91</v>
@@ -17998,7 +17998,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:10" ht="15.3">
       <c r="A2" s="49">
         <v>1991</v>
       </c>
@@ -18018,10 +18018,10 @@
         <v>1.06</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I2" s="50">
         <v>3.7130000000000003E-2</v>
@@ -18030,7 +18030,7 @@
         <v>9.7158920000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="15.3">
       <c r="A3" s="49">
         <v>1992</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>1.921E-3</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I3" s="50">
         <v>3.6905E-2</v>
@@ -18062,7 +18062,7 @@
         <v>8.9364349999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
+    <row r="4" spans="1:10" ht="15.3">
       <c r="A4" s="49">
         <v>1993</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I4" s="50">
         <v>2.5239999999999999E-2</v>
@@ -18094,7 +18094,7 @@
         <v>9.0117820000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.3">
       <c r="A5" s="49">
         <v>1994</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>1.725E-3</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I5" s="50">
         <v>1.7833999999999999E-2</v>
@@ -18126,7 +18126,7 @@
         <v>9.3099150000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="15.3">
       <c r="A6" s="49">
         <v>1995</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>1.348E-3</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I6" s="50">
         <v>1.9188E-2</v>
@@ -18158,7 +18158,7 @@
         <v>9.1848019999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="15.3">
       <c r="A7" s="49">
         <v>1996</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>1.4270000000000001E-3</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I7" s="50">
         <v>3.1510999999999997E-2</v>
@@ -18190,7 +18190,7 @@
         <v>9.1569109999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
+    <row r="8" spans="1:10" ht="15.3">
       <c r="A8" s="49">
         <v>1997</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>1.5560000000000001E-3</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I8" s="50">
         <v>4.6684999999999997E-2</v>
@@ -18222,7 +18222,7 @@
         <v>9.3453949999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75">
+    <row r="9" spans="1:10" ht="15.3">
       <c r="A9" s="49">
         <v>1998</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>9.7533980000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75">
+    <row r="10" spans="1:10" ht="15.3">
       <c r="A10" s="49">
         <v>1999</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>10.049611000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75">
+    <row r="11" spans="1:10" ht="15.3">
       <c r="A11" s="49">
         <v>2000</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>9.6490530000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
+    <row r="12" spans="1:10" ht="15.3">
       <c r="A12" s="49">
         <v>2001</v>
       </c>
@@ -18350,7 +18350,7 @@
         <v>9.6032150000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="15.3">
       <c r="A13" s="49">
         <v>2002</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>10.10915</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:10" ht="15.3">
       <c r="A14" s="49">
         <v>2003</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>10.357733</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="15.3">
       <c r="A15" s="49">
         <v>2004</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>10.615496</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
+    <row r="16" spans="1:10" ht="15.3">
       <c r="A16" s="49">
         <v>2005</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>10.595442</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="15.3">
       <c r="A17" s="49">
         <v>2006</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>10.206561000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.3">
       <c r="A18" s="49">
         <v>2007</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>9.7810950000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="15.3">
       <c r="A19" s="49">
         <v>2008</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>9.135408</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="15.3">
       <c r="A20" s="49">
         <v>2009</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>9.4471539999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="15.3">
       <c r="A21" s="49">
         <v>2010</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>9.0763200000000008</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.3">
       <c r="A22" s="49">
         <v>2011</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>8.7921220000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="15.3">
       <c r="A23" s="49">
         <v>2012</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>8.5762479999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="15.3">
       <c r="A24" s="49">
         <v>2013</v>
       </c>
@@ -18734,7 +18734,7 @@
         <v>7.9504760000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="15.3">
       <c r="A25" s="49">
         <v>2014</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>7.933967</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.3">
       <c r="A26" s="49">
         <v>2015</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>7.5456260000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" ht="15.3">
       <c r="A27" s="49">
         <v>2016</v>
       </c>
@@ -18830,7 +18830,7 @@
         <v>7.1496820000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="15.3">
       <c r="A28" s="49">
         <v>2017</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>6.7692600000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="15.3">
       <c r="A29" s="49">
         <v>2018</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>7.080603</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75">
+    <row r="30" spans="1:10" ht="15.3">
       <c r="A30" s="49">
         <v>2019</v>
       </c>
@@ -18939,13 +18939,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.83984375" customWidth="1"/>
+    <col min="3" max="3" width="21.26171875" customWidth="1"/>
+    <col min="4" max="4" width="17.68359375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.26171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -18976,13 +18976,13 @@
         <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
         <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -19418,13 +19418,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -20007,10 +20007,10 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -20685,18 +20685,18 @@
         <v>47712936.086480156</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.75">
+    <row r="22" spans="1:17" ht="18.3">
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:17" ht="18.75">
+    <row r="23" spans="1:17" ht="18.3">
       <c r="C23" s="33"/>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:17" ht="18.75">
+    <row r="24" spans="1:17" ht="18.3">
       <c r="C24" s="33"/>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:17" ht="18.75">
+    <row r="25" spans="1:17" ht="18.3">
       <c r="C25" s="33"/>
       <c r="H25" s="31"/>
     </row>
@@ -20761,7 +20761,7 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="B1" t="s">
@@ -20777,52 +20777,52 @@
         <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J1" t="s">
+        <v>455</v>
+      </c>
+      <c r="K1" t="s">
         <v>456</v>
       </c>
-      <c r="K1" t="s">
-        <v>457</v>
-      </c>
       <c r="M1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N1" t="s">
+        <v>387</v>
+      </c>
+      <c r="O1" t="s">
         <v>388</v>
       </c>
-      <c r="O1" t="s">
-        <v>389</v>
-      </c>
       <c r="Q1" t="s">
+        <v>475</v>
+      </c>
+      <c r="R1" t="s">
         <v>476</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>473</v>
+      </c>
+      <c r="T1" t="s">
+        <v>474</v>
+      </c>
+      <c r="U1" t="s">
         <v>477</v>
       </c>
-      <c r="S1" t="s">
-        <v>474</v>
-      </c>
-      <c r="T1" t="s">
-        <v>475</v>
-      </c>
-      <c r="U1" t="s">
-        <v>478</v>
-      </c>
       <c r="V1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="X1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -20830,48 +20830,48 @@
         <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2" t="s">
         <v>472</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E2" t="s">
-        <v>473</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -23047,7 +23047,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
@@ -23063,7 +23063,7 @@
         <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -23074,10 +23074,10 @@
         <v>293</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -23667,7 +23667,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:34">
       <c r="B1" t="s">
@@ -23683,7 +23683,7 @@
         <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1" t="s">
         <v>23</v>
@@ -23692,67 +23692,67 @@
         <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="T1" t="s">
+        <v>494</v>
+      </c>
+      <c r="U1" t="s">
+        <v>483</v>
+      </c>
+      <c r="V1" t="s">
         <v>495</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>486</v>
+      </c>
+      <c r="X1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA1" t="s">
         <v>484</v>
       </c>
-      <c r="V1" t="s">
-        <v>496</v>
-      </c>
-      <c r="W1" t="s">
-        <v>487</v>
-      </c>
-      <c r="X1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>489</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>497</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>485</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE1" t="s">
         <v>498</v>
       </c>
-      <c r="AC1" t="s">
-        <v>486</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>493</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>499</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>500</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>501</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -23760,67 +23760,67 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K2" t="s">
         <v>480</v>
       </c>
-      <c r="K2" t="s">
-        <v>481</v>
-      </c>
       <c r="L2" t="s">
+        <v>539</v>
+      </c>
+      <c r="M2" t="s">
+        <v>480</v>
+      </c>
+      <c r="N2" t="s">
         <v>540</v>
       </c>
-      <c r="M2" t="s">
-        <v>481</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>541</v>
       </c>
-      <c r="O2" t="s">
-        <v>542</v>
-      </c>
       <c r="P2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T2" t="s">
+        <v>490</v>
+      </c>
+      <c r="U2" t="s">
+        <v>490</v>
+      </c>
+      <c r="V2" t="s">
+        <v>490</v>
+      </c>
+      <c r="W2" t="s">
+        <v>489</v>
+      </c>
+      <c r="X2" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z2" t="s">
         <v>491</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>491</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AB2" t="s">
         <v>491</v>
       </c>
-      <c r="W2" t="s">
-        <v>490</v>
-      </c>
-      <c r="X2" t="s">
-        <v>490</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>492</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>492</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>492</v>
-      </c>
       <c r="AC2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AD2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -27889,7 +27889,7 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
@@ -27905,19 +27905,19 @@
         <v>177</v>
       </c>
       <c r="F1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G1" t="s">
         <v>558</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>559</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>560</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>561</v>
-      </c>
-      <c r="J1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -27925,28 +27925,28 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -28325,11 +28325,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70BBC54-9A6A-4436-A684-DF848EF748EA}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
@@ -28353,7 +28353,7 @@
         <v>291</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>596</v>
       </c>
       <c r="E2" t="s">
         <v>290</v>
